--- a/data/extracted/Congressional Election Results by State (2010 - 112th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2010 - 112th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC1152-3BF7-4348-ACE8-1FF78DFA5FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888620B-A248-634A-9A29-49DB4F7D120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1460" windowWidth="23340" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1460" windowWidth="23340" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="6" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="7" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="6" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="153">
   <si>
     <t>Votes</t>
   </si>
@@ -475,33 +471,6 @@
   </si>
   <si>
     <t>31st</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
   </si>
   <si>
     <t>STATE</t>
@@ -598,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,14 +586,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -661,31 +624,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,34 +661,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -756,1424 +676,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42872.33944895833" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="67" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J69" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="205288"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="232649"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="116978"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="280390" count="29">
-        <n v="156281"/>
-        <n v="169721"/>
-        <n v="209364"/>
-        <n v="0"/>
-        <n v="135979"/>
-        <n v="175663"/>
-        <n v="213526"/>
-        <n v="230845"/>
-        <n v="250981"/>
-        <n v="123370"/>
-        <s v=" "/>
-        <n v="198288"/>
-        <n v="173512"/>
-        <n v="163515"/>
-        <n v="155312"/>
-        <n v="137660"/>
-        <n v="210358"/>
-        <n v="86753"/>
-        <n v="210145"/>
-        <n v="196829"/>
-        <n v="149944"/>
-        <n v="144209"/>
-        <n v="146731"/>
-        <n v="176378"/>
-        <n v="130043"/>
-        <n v="122687"/>
-        <n v="153119"/>
-        <n v="167154"/>
-        <n v="280390"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="0"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="1st"/>
-    <n v="129063"/>
-    <n v="0"/>
-    <n v="27218"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="4th"/>
-    <n v="167714"/>
-    <n v="0"/>
-    <n v="2007"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="6th"/>
-    <n v="205288"/>
-    <n v="0"/>
-    <n v="4076"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="21st"/>
-    <n v="135979"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="22nd"/>
-    <n v="173490"/>
-    <n v="0"/>
-    <n v="2173"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="1st"/>
-    <n v="170821"/>
-    <n v="0"/>
-    <n v="42705"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="4th"/>
-    <n v="178238"/>
-    <n v="0"/>
-    <n v="52607"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="6th"/>
-    <n v="179349"/>
-    <n v="0"/>
-    <n v="71632"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="106361"/>
-    <n v="17009"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="6th"/>
-    <n v="198100"/>
-    <n v="0"/>
-    <n v="188"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="9th"/>
-    <n v="173512"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="11th"/>
-    <n v="163515"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="5th"/>
-    <n v="122033"/>
-    <n v="0"/>
-    <n v="33279"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="7th"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="134974"/>
-    <n v="2686"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="9th"/>
-    <n v="162724"/>
-    <n v="0"/>
-    <n v="47634"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="68624"/>
-    <n v="18129"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="29th"/>
-    <n v="93167"/>
-    <n v="0"/>
-    <n v="116978"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="1st"/>
-    <n v="151173"/>
-    <n v="0"/>
-    <n v="45656"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="4th"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="149944"/>
-    <n v="0"/>
-    <x v="20"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="1st"/>
-    <n v="129398"/>
-    <n v="0"/>
-    <n v="14811"/>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="2nd"/>
-    <n v="130020"/>
-    <n v="0"/>
-    <n v="16711"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="7th"/>
-    <n v="143655"/>
-    <n v="0"/>
-    <n v="32723"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="13th"/>
-    <n v="113201"/>
-    <n v="0"/>
-    <n v="16842"/>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="24th"/>
-    <n v="100078"/>
-    <n v="0"/>
-    <n v="22609"/>
-    <x v="25"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="31st"/>
-    <n v="126384"/>
-    <n v="0"/>
-    <n v="26735"/>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="6th"/>
-    <n v="127487"/>
-    <n v="0"/>
-    <n v="39667"/>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="232649"/>
-    <n v="47741"/>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="30">
-        <item x="3"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="26"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="27"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Uncontested Votes" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2439,13 +941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2455,15 +957,12 @@
     <col min="3" max="3" width="10.83203125" style="12"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="14" customWidth="1"/>
-    <col min="12" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="26" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="14" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -2474,23 +973,15 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
-        <v>146</v>
-      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2509,35 +1000,23 @@
       <c r="F2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>150</v>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2557,34 +1036,21 @@
       <c r="F3" s="1">
         <v>1367747</v>
       </c>
-      <c r="G3" s="12">
-        <v>535366</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="33">
-        <f t="shared" ref="J3:J52" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>208095.25</v>
-      </c>
-      <c r="K3" s="14">
-        <f t="shared" ref="K3:K52" si="2">N3-L3-M3</f>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G52" si="1">J3-H3-I3</f>
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2604,34 +1070,21 @@
       <c r="F4" s="1">
         <v>254335</v>
       </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33">
+      <c r="G4" s="14">
         <f t="shared" si="1"/>
-        <v>254335</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2651,34 +1104,21 @@
       <c r="F5" s="1">
         <v>1698145</v>
       </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="33">
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>212268.125</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2698,34 +1138,21 @@
       <c r="F6" s="1">
         <v>774125</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
-        <v>193531.25</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2745,34 +1172,21 @@
       <c r="F7" s="1">
         <v>9648096</v>
       </c>
-      <c r="G7" s="12">
-        <v>311642</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
-        <v>183067.72549019608</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>34</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2792,34 +1206,21 @@
       <c r="F8" s="1">
         <v>1763152</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
-        <v>251878.85714285713</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2839,34 +1240,21 @@
       <c r="F9" s="1">
         <v>1138202</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="33">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>227640.4</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2886,34 +1274,21 @@
       <c r="F10" s="1">
         <v>305636</v>
       </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="33">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
-        <v>305636</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2933,34 +1308,21 @@
       <c r="F11" s="1">
         <v>5117420</v>
       </c>
-      <c r="G11" s="12">
-        <v>818722</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="33">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
-        <v>214934.9</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2980,34 +1342,21 @@
       <c r="F12" s="1">
         <v>2468680</v>
       </c>
-      <c r="G12" s="12">
-        <v>535315</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="33">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>193336.5</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3027,34 +1376,21 @@
       <c r="F13" s="1">
         <v>360121</v>
       </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
-        <v>180060.5</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3074,34 +1410,21 @@
       <c r="F14" s="1">
         <v>447144</v>
       </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
-        <v>223572</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3121,34 +1444,21 @@
       <c r="F15" s="1">
         <v>3696159</v>
       </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
-        <v>194534.68421052632</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>8</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3168,34 +1478,21 @@
       <c r="F16" s="1">
         <v>1747720</v>
       </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="33">
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
-        <v>194191.11111111112</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3215,34 +1512,21 @@
       <c r="F17" s="1">
         <v>1106591</v>
       </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="G17" s="14">
         <f t="shared" si="1"/>
-        <v>221318.2</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3262,34 +1546,21 @@
       <c r="F18" s="1">
         <v>835529</v>
       </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="33">
+      <c r="G18" s="14">
         <f t="shared" si="1"/>
-        <v>208882.25</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3309,34 +1580,21 @@
       <c r="F19" s="1">
         <v>1354298</v>
       </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33">
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
-        <v>225716.33333333334</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3356,34 +1614,21 @@
       <c r="F20" s="1">
         <v>1035947</v>
       </c>
-      <c r="G20" s="12">
-        <v>155312</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="33">
+      <c r="G20" s="14">
         <f t="shared" si="1"/>
-        <v>176127</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -3403,34 +1648,21 @@
       <c r="F21" s="1">
         <v>564368</v>
       </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33">
+      <c r="G21" s="14">
         <f t="shared" si="1"/>
-        <v>282184</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3450,34 +1682,21 @@
       <c r="F22" s="1">
         <v>1825472</v>
       </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="33">
+      <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>228184</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L22">
+      <c r="H22">
         <v>6</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3497,34 +1716,21 @@
       <c r="F23" s="1">
         <v>2224255</v>
       </c>
-      <c r="G23" s="12">
-        <v>137660</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="33">
+      <c r="G23" s="14">
         <f t="shared" si="1"/>
-        <v>231843.88888888888</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3544,34 +1750,21 @@
       <c r="F24" s="1">
         <v>3194901</v>
       </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="33">
+      <c r="G24" s="14">
         <f t="shared" si="1"/>
-        <v>212993.4</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3591,34 +1784,21 @@
       <c r="F25" s="1">
         <v>2090591</v>
       </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="33">
+      <c r="G25" s="14">
         <f t="shared" si="1"/>
-        <v>261323.875</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3638,34 +1818,21 @@
       <c r="F26" s="1">
         <v>788549</v>
       </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="33">
+      <c r="G26" s="14">
         <f t="shared" si="1"/>
-        <v>197137.25</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3685,34 +1852,21 @@
       <c r="F27" s="1">
         <v>1920675</v>
       </c>
-      <c r="G27" s="12">
-        <v>210358</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="33">
+      <c r="G27" s="14">
         <f t="shared" si="1"/>
-        <v>213789.625</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3732,34 +1886,21 @@
       <c r="F28" s="1">
         <v>360341</v>
       </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="33">
+      <c r="G28" s="14">
         <f t="shared" si="1"/>
-        <v>360341</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3779,34 +1920,21 @@
       <c r="F29" s="1">
         <v>485546</v>
       </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="33">
+      <c r="G29" s="14">
         <f t="shared" si="1"/>
-        <v>161848.66666666666</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3826,34 +1954,21 @@
       <c r="F30" s="1">
         <v>702788</v>
       </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="33">
+      <c r="G30" s="14">
         <f t="shared" si="1"/>
-        <v>234262.66666666666</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3873,34 +1988,21 @@
       <c r="F31" s="1">
         <v>449787</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="33">
+      <c r="G31" s="14">
         <f t="shared" si="1"/>
-        <v>224893.5</v>
-      </c>
-      <c r="K31" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3920,34 +2022,21 @@
       <c r="F32" s="1">
         <v>2121584</v>
       </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="33">
+      <c r="G32" s="14">
         <f t="shared" si="1"/>
-        <v>163198.76923076922</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3967,34 +2056,21 @@
       <c r="F33" s="1">
         <v>596651</v>
       </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="33">
+      <c r="G33" s="14">
         <f t="shared" si="1"/>
-        <v>198883.66666666666</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4014,34 +2090,21 @@
       <c r="F34" s="1">
         <v>4743783</v>
       </c>
-      <c r="G34" s="12">
-        <v>296898</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="33">
+      <c r="G34" s="14">
         <f t="shared" si="1"/>
-        <v>164699.44444444444</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L34">
+      <c r="H34">
         <v>21</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4055,40 +2118,27 @@
         <v>1204635</v>
       </c>
       <c r="E35" s="13">
-        <f t="shared" ref="E35" si="3">F35-D35-C35</f>
+        <f t="shared" ref="E35" si="2">F35-D35-C35</f>
         <v>17001</v>
       </c>
       <c r="F35" s="1">
         <v>2662549</v>
       </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="33">
+      <c r="G35" s="14">
         <f t="shared" si="1"/>
-        <v>204811.46153846153</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>7</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -4108,34 +2158,21 @@
       <c r="F36" s="1">
         <v>236344</v>
       </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="33">
+      <c r="G36" s="14">
         <f t="shared" si="1"/>
-        <v>236344</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4155,34 +2192,21 @@
       <c r="F37" s="1">
         <v>3825274</v>
       </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="33">
+      <c r="G37" s="14">
         <f t="shared" si="1"/>
-        <v>212515.22222222222</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4202,34 +2226,21 @@
       <c r="F38" s="1">
         <v>792979</v>
       </c>
-      <c r="G38" s="12">
-        <v>196829</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="33">
+      <c r="G38" s="14">
         <f t="shared" si="1"/>
-        <v>198716.66666666666</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -4249,34 +2260,21 @@
       <c r="F39" s="1">
         <v>1429356</v>
       </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="33">
+      <c r="G39" s="14">
         <f t="shared" si="1"/>
-        <v>285871.2</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4296,34 +2294,21 @@
       <c r="F40" s="1">
         <v>3956401</v>
       </c>
-      <c r="G40" s="12">
-        <v>149944</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="33">
+      <c r="G40" s="14">
         <f t="shared" si="1"/>
-        <v>211469.83333333334</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>7</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -4343,34 +2328,21 @@
       <c r="F41" s="1">
         <v>335484</v>
       </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="33">
+      <c r="G41" s="14">
         <f t="shared" si="1"/>
-        <v>167742</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -4390,34 +2362,21 @@
       <c r="F42" s="1">
         <v>1340189</v>
       </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="33">
+      <c r="G42" s="14">
         <f t="shared" si="1"/>
-        <v>223364.83333333334</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -4437,34 +2396,21 @@
       <c r="F43" s="1">
         <v>319426</v>
       </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="33">
+      <c r="G43" s="14">
         <f t="shared" si="1"/>
-        <v>319426</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -4484,34 +2430,21 @@
       <c r="F44" s="1">
         <v>1559129</v>
       </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="33">
+      <c r="G44" s="14">
         <f t="shared" si="1"/>
-        <v>173236.55555555556</v>
-      </c>
-      <c r="K44" s="14">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -4531,34 +2464,21 @@
       <c r="F45" s="1">
         <v>4745545</v>
       </c>
-      <c r="G45" s="12">
-        <v>873167</v>
-      </c>
-      <c r="H45" s="1">
-        <v>6</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="33">
+      <c r="G45" s="14">
         <f t="shared" si="1"/>
-        <v>148937.61538461538</v>
-      </c>
-      <c r="K45" s="14">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>9</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -4578,34 +2498,21 @@
       <c r="F46" s="1">
         <v>640495</v>
       </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="33">
+      <c r="G46" s="14">
         <f t="shared" si="1"/>
-        <v>213498.33333333334</v>
-      </c>
-      <c r="K46" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -4625,34 +2532,21 @@
       <c r="F47" s="1">
         <v>238521</v>
       </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="33">
+      <c r="G47" s="14">
         <f t="shared" si="1"/>
-        <v>238521</v>
-      </c>
-      <c r="K47" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -4672,34 +2566,21 @@
       <c r="F48" s="1">
         <v>2189841</v>
       </c>
-      <c r="G48" s="12">
-        <v>167154</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="33">
+      <c r="G48" s="14">
         <f t="shared" si="1"/>
-        <v>202268.7</v>
-      </c>
-      <c r="K48" s="14">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -4719,34 +2600,21 @@
       <c r="F49" s="1">
         <v>2479409</v>
       </c>
-      <c r="G49" s="12">
-        <v>280390</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="33">
+      <c r="G49" s="14">
         <f t="shared" si="1"/>
-        <v>274877.375</v>
-      </c>
-      <c r="K49" s="14">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>5</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -4766,34 +2634,21 @@
       <c r="F50" s="1">
         <v>514373</v>
       </c>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="33">
+      <c r="G50" s="14">
         <f t="shared" si="1"/>
-        <v>171457.66666666666</v>
-      </c>
-      <c r="K50" s="14">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -4813,34 +2668,21 @@
       <c r="F51" s="1">
         <v>2140482</v>
       </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="33">
+      <c r="G51" s="14">
         <f t="shared" si="1"/>
-        <v>267560.25</v>
-      </c>
-      <c r="K51" s="14">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -4860,37 +2702,24 @@
       <c r="F52" s="1">
         <v>190822</v>
       </c>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="33">
+      <c r="G52" s="14">
         <f t="shared" si="1"/>
-        <v>190822</v>
-      </c>
-      <c r="K52" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>1</v>
       </c>
@@ -4900,51 +2729,36 @@
         <v>44593666</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" ref="D54:I54" si="4">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="3">SUM(D3:D52)</f>
         <v>38854459</v>
       </c>
       <c r="E54" s="19">
+        <f t="shared" si="3"/>
+        <v>3336832</v>
+      </c>
+      <c r="F54" s="17">
+        <f t="shared" si="3"/>
+        <v>86784957</v>
+      </c>
+      <c r="G54" s="18">
+        <f>SUM(G3:G52)</f>
+        <v>242</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" ref="H54:J54" si="4">SUM(H3:H52)</f>
+        <v>193</v>
+      </c>
+      <c r="I54" s="15">
         <f t="shared" si="4"/>
-        <v>3336832</v>
-      </c>
-      <c r="F54" s="17">
+        <v>0</v>
+      </c>
+      <c r="J54" s="15">
         <f t="shared" si="4"/>
-        <v>86784957</v>
-      </c>
-      <c r="G54" s="16">
-        <f t="shared" si="4"/>
-        <v>4668757</v>
-      </c>
-      <c r="H54" s="17">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="I54" s="17">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J54" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K54" s="18">
-        <f>SUM(K3:K52)</f>
-        <v>242</v>
-      </c>
-      <c r="L54" s="15">
-        <f t="shared" ref="L54:N54" si="5">SUM(L3:L52)</f>
-        <v>193</v>
-      </c>
-      <c r="M54" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="15">
-        <f t="shared" si="5"/>
         <v>435</v>
       </c>
-      <c r="O54" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -4957,20 +2771,20 @@
       <c r="F57" s="1">
         <v>86784957</v>
       </c>
-      <c r="K57" s="14">
+      <c r="G57" s="14">
         <v>242</v>
       </c>
-      <c r="L57">
+      <c r="H57">
         <v>193</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -4979,30 +2793,30 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:F58" si="6">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="5">D54-D57</f>
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="14">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
         <v>0</v>
       </c>
     </row>
@@ -5014,13 +2828,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5031,10 +2845,10 @@
     <col min="6" max="6" width="10.83203125" style="26"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="10.83203125" style="14"/>
-    <col min="11" max="11" width="52.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5053,7 +2867,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5088,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5120,8 +2934,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5153,8 +2971,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="2">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5186,8 +3008,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5204,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" ref="F6:F69" si="2">G6-SUM(D6:E6)</f>
+        <f t="shared" ref="F6:F69" si="3">G6-SUM(D6:E6)</f>
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -5219,8 +3045,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5237,23 +3067,27 @@
         <v>0</v>
       </c>
       <c r="F7" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5270,23 +3104,27 @@
         <v>0</v>
       </c>
       <c r="F8" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5303,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="1">
@@ -5318,8 +3156,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5336,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10" si="3">G10-SUM(D10:E10)</f>
+        <f t="shared" ref="F10" si="4">G10-SUM(D10:E10)</f>
         <v>2173</v>
       </c>
       <c r="G10" s="1">
@@ -5351,8 +3193,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5369,23 +3215,27 @@
         <v>0</v>
       </c>
       <c r="F11" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5402,23 +3252,27 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5435,23 +3289,27 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5468,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42705</v>
       </c>
       <c r="G14" s="1">
@@ -5483,8 +3341,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -5501,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" ref="F15:F17" si="4">G15-SUM(D15:E15)</f>
+        <f t="shared" ref="F15:F17" si="5">G15-SUM(D15:E15)</f>
         <v>52607</v>
       </c>
       <c r="G15" s="1">
@@ -5516,8 +3378,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -5534,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71632</v>
       </c>
       <c r="G16" s="1">
@@ -5549,8 +3415,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -5567,7 +3437,7 @@
         <v>106361</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17009</v>
       </c>
       <c r="G17" s="1">
@@ -5582,8 +3452,12 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
@@ -5617,8 +3491,12 @@
       <c r="K18" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5635,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="G19" s="1">
@@ -5650,8 +3528,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5668,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" ref="F20:F21" si="5">G20-SUM(D20:E20)</f>
+        <f t="shared" ref="F20:F21" si="6">G20-SUM(D20:E20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="1">
@@ -5683,8 +3565,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5701,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
@@ -5716,8 +3602,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5734,23 +3624,27 @@
         <v>0</v>
       </c>
       <c r="F22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -5767,23 +3661,27 @@
         <v>0</v>
       </c>
       <c r="F23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5800,23 +3698,27 @@
         <v>0</v>
       </c>
       <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5833,23 +3735,27 @@
         <v>0</v>
       </c>
       <c r="F25" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -5866,23 +3772,27 @@
         <v>0</v>
       </c>
       <c r="F26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -5899,23 +3809,27 @@
         <v>0</v>
       </c>
       <c r="F27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -5932,23 +3846,27 @@
         <v>0</v>
       </c>
       <c r="F28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -5965,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33279</v>
       </c>
       <c r="G29" s="1">
@@ -5980,8 +3898,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
@@ -6015,8 +3937,12 @@
       <c r="K30" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -6033,23 +3959,27 @@
         <v>0</v>
       </c>
       <c r="F31" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -6066,23 +3996,27 @@
         <v>0</v>
       </c>
       <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -6099,7 +4033,7 @@
         <v>134974</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2686</v>
       </c>
       <c r="G33" s="1">
@@ -6114,8 +4048,12 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -6132,23 +4070,27 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -6165,23 +4107,27 @@
         <v>0</v>
       </c>
       <c r="F35" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -6198,23 +4144,27 @@
         <v>0</v>
       </c>
       <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -6231,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47634</v>
       </c>
       <c r="G37" s="1">
@@ -6246,8 +4196,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6264,23 +4218,27 @@
         <v>0</v>
       </c>
       <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -6297,23 +4255,27 @@
         <v>0</v>
       </c>
       <c r="F39" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -6330,23 +4292,27 @@
         <v>0</v>
       </c>
       <c r="F40" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -6363,23 +4329,27 @@
         <v>0</v>
       </c>
       <c r="F41" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -6396,23 +4366,27 @@
         <v>0</v>
       </c>
       <c r="F42" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -6429,23 +4403,27 @@
         <v>0</v>
       </c>
       <c r="F43" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -6462,7 +4440,7 @@
         <v>68624</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18129</v>
       </c>
       <c r="G44" s="1">
@@ -6480,8 +4458,12 @@
       <c r="K44" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -6498,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" ref="F45" si="6">G45-SUM(D45:E45)</f>
+        <f t="shared" ref="F45" si="7">G45-SUM(D45:E45)</f>
         <v>116978</v>
       </c>
       <c r="G45" s="1">
@@ -6513,8 +4495,12 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -6531,23 +4517,27 @@
         <v>0</v>
       </c>
       <c r="F46" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="14">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -6564,23 +4554,27 @@
         <v>0</v>
       </c>
       <c r="F47" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -6597,23 +4591,27 @@
         <v>0</v>
       </c>
       <c r="F48" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="14">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -6630,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45656</v>
       </c>
       <c r="G49" s="1">
@@ -6645,8 +4643,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>80</v>
       </c>
@@ -6680,8 +4682,12 @@
       <c r="K50" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -6698,23 +4704,27 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="14">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -6731,7 +4741,7 @@
         <v>149944</v>
       </c>
       <c r="F52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
@@ -6746,8 +4756,12 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -6764,23 +4778,27 @@
         <v>0</v>
       </c>
       <c r="F53" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="14">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -6797,23 +4815,27 @@
         <v>0</v>
       </c>
       <c r="F54" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="14">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -6830,23 +4852,27 @@
         <v>0</v>
       </c>
       <c r="F55" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="14">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -6863,23 +4889,27 @@
         <v>0</v>
       </c>
       <c r="F56" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="14">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -6896,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14811</v>
       </c>
       <c r="G57" s="1">
@@ -6911,8 +4941,12 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -6929,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F62" si="7">G58-SUM(D58:E58)</f>
+        <f t="shared" ref="F58:F62" si="8">G58-SUM(D58:E58)</f>
         <v>16711</v>
       </c>
       <c r="G58" s="1">
@@ -6944,8 +4978,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -6962,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32723</v>
       </c>
       <c r="G59" s="1">
@@ -6977,8 +5015,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -6995,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16842</v>
       </c>
       <c r="G60" s="1">
@@ -7010,8 +5052,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -7028,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22609</v>
       </c>
       <c r="G61" s="1">
@@ -7043,8 +5089,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -7061,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26735</v>
       </c>
       <c r="G62" s="1">
@@ -7076,8 +5126,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -7094,23 +5148,27 @@
         <v>0</v>
       </c>
       <c r="F63" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="14">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -7127,23 +5185,27 @@
         <v>0</v>
       </c>
       <c r="F64" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="14">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -7160,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39667</v>
       </c>
       <c r="G65" s="1">
@@ -7175,8 +5237,12 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -7193,7 +5259,7 @@
         <v>232649</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47741</v>
       </c>
       <c r="G66" s="1">
@@ -7208,8 +5274,12 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -7226,23 +5296,27 @@
         <v>0</v>
       </c>
       <c r="F67" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="14">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -7259,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
@@ -7274,8 +5348,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L69" si="9">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -7292,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
@@ -7307,47 +5385,51 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L69" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16">
-        <f t="shared" ref="D71:J71" si="8">SUM(D3:D69)</f>
+        <f t="shared" ref="D71:J71" si="10">SUM(D3:D69)</f>
         <v>3274389</v>
       </c>
       <c r="E71" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>692552</v>
       </c>
       <c r="F71" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>701816</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4668757</v>
       </c>
       <c r="H71" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I71" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J71" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K71" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C73" s="27"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C74" s="27"/>
     </row>
   </sheetData>
@@ -7358,914 +5440,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>535366</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>311642</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1">
-        <v>818722</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>535315</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1">
-        <v>155312</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1">
-        <v>137660</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1">
-        <v>210358</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1">
-        <v>296898</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="1">
-        <v>196829</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1">
-        <v>149944</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="1">
-        <v>873167</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="1">
-        <v>167154</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1">
-        <v>280390</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4668757</v>
-      </c>
-      <c r="D54">
-        <v>25</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B90D697-64F0-BF47-896D-4673A3442103}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8276,34 +5454,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -9911,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F399B-1A6F-3940-983C-14A153568399}">
   <dimension ref="A1:J68"/>
   <sheetViews>
@@ -9926,34 +7104,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
